--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sirpa-Cd47.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sirpa-Cd47.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.45628925443654</v>
+        <v>101.6208433333333</v>
       </c>
       <c r="H2">
-        <v>5.45628925443654</v>
+        <v>304.86253</v>
       </c>
       <c r="I2">
-        <v>0.157492233789395</v>
+        <v>0.7748298251610983</v>
       </c>
       <c r="J2">
-        <v>0.157492233789395</v>
+        <v>0.7748298251610983</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.4853545500676</v>
+        <v>61.27353666666666</v>
       </c>
       <c r="N2">
-        <v>59.4853545500676</v>
+        <v>183.82061</v>
       </c>
       <c r="O2">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406809</v>
       </c>
       <c r="P2">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406808</v>
       </c>
       <c r="Q2">
-        <v>324.5693008278816</v>
+        <v>6226.668470082588</v>
       </c>
       <c r="R2">
-        <v>324.5693008278816</v>
+        <v>56040.0162307433</v>
       </c>
       <c r="S2">
-        <v>0.05400910685724373</v>
+        <v>0.2692227264964368</v>
       </c>
       <c r="T2">
-        <v>0.05400910685724373</v>
+        <v>0.2692227264964367</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.45628925443654</v>
+        <v>101.6208433333333</v>
       </c>
       <c r="H3">
-        <v>5.45628925443654</v>
+        <v>304.86253</v>
       </c>
       <c r="I3">
-        <v>0.157492233789395</v>
+        <v>0.7748298251610983</v>
       </c>
       <c r="J3">
-        <v>0.157492233789395</v>
+        <v>0.7748298251610983</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>89.3264182155755</v>
+        <v>89.66709900000001</v>
       </c>
       <c r="N3">
-        <v>89.3264182155755</v>
+        <v>269.001297</v>
       </c>
       <c r="O3">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="P3">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="Q3">
-        <v>487.3907758469491</v>
+        <v>9112.04621963349</v>
       </c>
       <c r="R3">
-        <v>487.3907758469491</v>
+        <v>82008.41597670142</v>
       </c>
       <c r="S3">
-        <v>0.08110298918230753</v>
+        <v>0.3939779255950558</v>
       </c>
       <c r="T3">
-        <v>0.08110298918230753</v>
+        <v>0.3939779255950558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.45628925443654</v>
+        <v>101.6208433333333</v>
       </c>
       <c r="H4">
-        <v>5.45628925443654</v>
+        <v>304.86253</v>
       </c>
       <c r="I4">
-        <v>0.157492233789395</v>
+        <v>0.7748298251610983</v>
       </c>
       <c r="J4">
-        <v>0.157492233789395</v>
+        <v>0.7748298251610983</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.6493694562967</v>
+        <v>25.40615466666667</v>
       </c>
       <c r="N4">
-        <v>24.6493694562967</v>
+        <v>76.218464</v>
       </c>
       <c r="O4">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654054</v>
       </c>
       <c r="P4">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654053</v>
       </c>
       <c r="Q4">
-        <v>134.4940896930279</v>
+        <v>2581.794863083769</v>
       </c>
       <c r="R4">
-        <v>134.4940896930279</v>
+        <v>23236.15376775392</v>
       </c>
       <c r="S4">
-        <v>0.02238013774984376</v>
+        <v>0.1116291730696058</v>
       </c>
       <c r="T4">
-        <v>0.02238013774984376</v>
+        <v>0.1116291730696058</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.5728644426625</v>
+        <v>23.70024566666666</v>
       </c>
       <c r="H5">
-        <v>23.5728644426625</v>
+        <v>71.100737</v>
       </c>
       <c r="I5">
-        <v>0.6804153711005753</v>
+        <v>0.1807075852140151</v>
       </c>
       <c r="J5">
-        <v>0.6804153711005753</v>
+        <v>0.1807075852140151</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.4853545500676</v>
+        <v>61.27353666666666</v>
       </c>
       <c r="N5">
-        <v>59.4853545500676</v>
+        <v>183.82061</v>
       </c>
       <c r="O5">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406809</v>
       </c>
       <c r="P5">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406808</v>
       </c>
       <c r="Q5">
-        <v>1402.24019913246</v>
+        <v>1452.197871865508</v>
       </c>
       <c r="R5">
-        <v>1402.24019913246</v>
+        <v>13069.78084678957</v>
       </c>
       <c r="S5">
-        <v>0.2333361182382102</v>
+        <v>0.06278874045638236</v>
       </c>
       <c r="T5">
-        <v>0.2333361182382102</v>
+        <v>0.06278874045638236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.5728644426625</v>
+        <v>23.70024566666666</v>
       </c>
       <c r="H6">
-        <v>23.5728644426625</v>
+        <v>71.100737</v>
       </c>
       <c r="I6">
-        <v>0.6804153711005753</v>
+        <v>0.1807075852140151</v>
       </c>
       <c r="J6">
-        <v>0.6804153711005753</v>
+        <v>0.1807075852140151</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>89.3264182155755</v>
+        <v>89.66709900000001</v>
       </c>
       <c r="N6">
-        <v>89.3264182155755</v>
+        <v>269.001297</v>
       </c>
       <c r="O6">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="P6">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="Q6">
-        <v>2105.67954774434</v>
+        <v>2125.132274517321</v>
       </c>
       <c r="R6">
-        <v>2105.67954774434</v>
+        <v>19126.19047065589</v>
       </c>
       <c r="S6">
-        <v>0.3503901059377926</v>
+        <v>0.09188443352333141</v>
       </c>
       <c r="T6">
-        <v>0.3503901059377926</v>
+        <v>0.09188443352333141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.5728644426625</v>
+        <v>23.70024566666666</v>
       </c>
       <c r="H7">
-        <v>23.5728644426625</v>
+        <v>71.100737</v>
       </c>
       <c r="I7">
-        <v>0.6804153711005753</v>
+        <v>0.1807075852140151</v>
       </c>
       <c r="J7">
-        <v>0.6804153711005753</v>
+        <v>0.1807075852140151</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.6493694562967</v>
+        <v>25.40615466666667</v>
       </c>
       <c r="N7">
-        <v>24.6493694562967</v>
+        <v>76.218464</v>
       </c>
       <c r="O7">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654054</v>
       </c>
       <c r="P7">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654053</v>
       </c>
       <c r="Q7">
-        <v>581.0562447903875</v>
+        <v>602.1321070453297</v>
       </c>
       <c r="R7">
-        <v>581.0562447903875</v>
+        <v>5419.188963407967</v>
       </c>
       <c r="S7">
-        <v>0.09668914692457251</v>
+        <v>0.02603441123430133</v>
       </c>
       <c r="T7">
-        <v>0.09668914692457251</v>
+        <v>0.02603441123430132</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.61566099092494</v>
+        <v>5.831378333333333</v>
       </c>
       <c r="H8">
-        <v>5.61566099092494</v>
+        <v>17.494135</v>
       </c>
       <c r="I8">
-        <v>0.1620923951100296</v>
+        <v>0.04446258962488651</v>
       </c>
       <c r="J8">
-        <v>0.1620923951100296</v>
+        <v>0.04446258962488651</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>59.4853545500676</v>
+        <v>61.27353666666666</v>
       </c>
       <c r="N8">
-        <v>59.4853545500676</v>
+        <v>183.82061</v>
       </c>
       <c r="O8">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406809</v>
       </c>
       <c r="P8">
-        <v>0.3429318738946003</v>
+        <v>0.3474604587406808</v>
       </c>
       <c r="Q8">
-        <v>334.049585078154</v>
+        <v>357.3091741247055</v>
       </c>
       <c r="R8">
-        <v>334.049585078154</v>
+        <v>3215.78256712235</v>
       </c>
       <c r="S8">
-        <v>0.0555866487991464</v>
+        <v>0.0154489917878617</v>
       </c>
       <c r="T8">
-        <v>0.0555866487991464</v>
+        <v>0.0154489917878617</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.61566099092494</v>
+        <v>5.831378333333333</v>
       </c>
       <c r="H9">
-        <v>5.61566099092494</v>
+        <v>17.494135</v>
       </c>
       <c r="I9">
-        <v>0.1620923951100296</v>
+        <v>0.04446258962488651</v>
       </c>
       <c r="J9">
-        <v>0.1620923951100296</v>
+        <v>0.04446258962488651</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>89.3264182155755</v>
+        <v>89.66709900000001</v>
       </c>
       <c r="N9">
-        <v>89.3264182155755</v>
+        <v>269.001297</v>
       </c>
       <c r="O9">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="P9">
-        <v>0.5149650064063586</v>
+        <v>0.5084702637939138</v>
       </c>
       <c r="Q9">
-        <v>501.6268822322544</v>
+        <v>522.882778321455</v>
       </c>
       <c r="R9">
-        <v>501.6268822322544</v>
+        <v>4705.945004893096</v>
       </c>
       <c r="S9">
-        <v>0.08347191128625839</v>
+        <v>0.02260790467552658</v>
       </c>
       <c r="T9">
-        <v>0.08347191128625839</v>
+        <v>0.02260790467552658</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.61566099092494</v>
+        <v>5.831378333333333</v>
       </c>
       <c r="H10">
-        <v>5.61566099092494</v>
+        <v>17.494135</v>
       </c>
       <c r="I10">
-        <v>0.1620923951100296</v>
+        <v>0.04446258962488651</v>
       </c>
       <c r="J10">
-        <v>0.1620923951100296</v>
+        <v>0.04446258962488651</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.6493694562967</v>
+        <v>25.40615466666667</v>
       </c>
       <c r="N10">
-        <v>24.6493694562967</v>
+        <v>76.218464</v>
       </c>
       <c r="O10">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654054</v>
       </c>
       <c r="P10">
-        <v>0.1421031196990411</v>
+        <v>0.1440692774654053</v>
       </c>
       <c r="Q10">
-        <v>138.4225025066221</v>
+        <v>148.1528998565155</v>
       </c>
       <c r="R10">
-        <v>138.4225025066221</v>
+        <v>1333.37609870864</v>
       </c>
       <c r="S10">
-        <v>0.02303383502462479</v>
+        <v>0.006405693161498228</v>
       </c>
       <c r="T10">
-        <v>0.02303383502462479</v>
+        <v>0.006405693161498228</v>
       </c>
     </row>
   </sheetData>
